--- a/Тест-кейсы.xlsx
+++ b/Тест-кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Vs code java\PTEECH.testTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECCBF32-4977-4C05-8563-0B722136BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F32DA0-D2D3-4299-88E3-A21CDBA5D67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B24BCCE-5D81-4D77-8C51-FCDDD5987795}"/>
   </bookViews>
@@ -39,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
   <si>
     <t>Предусловия:</t>
-  </si>
-  <si>
-    <t>Статус:</t>
   </si>
   <si>
     <t>ID</t>
@@ -133,22 +130,6 @@
     <t>2. Клик на другое место на странице или ещё раз на основной элемент списка</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Отображается маска ввода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+7 xxx xxx-xx-xx </t>
-    </r>
-  </si>
-  <si>
     <t>Переоткрытие списка</t>
   </si>
   <si>
@@ -446,9 +427,6 @@
     <t>Номер отображается в поле ввода</t>
   </si>
   <si>
-    <t>2. Попробовать провести валидацию формы</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Появляется ошибка </t>
     </r>
@@ -478,6 +456,259 @@
         <scheme val="minor"/>
       </rPr>
       <t>+7 123 456</t>
+    </r>
+  </si>
+  <si>
+    <t>#008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка на длинный вввод </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. В поле ввода ввести номер длиннее шаблонной маски </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789123456879</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображается маска ввода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+7 xxx xxx-xx-xx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10 цифр)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вводится только нужное количество цифр </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1234567891</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10 цифр), последующие не вводятся</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Вставить ряд цифр </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789123456879</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;10 через буфер обмена</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вставляются только цифры </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1234567891</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10 цифр)</t>
+    </r>
+  </si>
+  <si>
+    <t>#009</t>
+  </si>
+  <si>
+    <t>Проверка отправки пустого поля</t>
+  </si>
+  <si>
+    <t>Открыто веб-приложение, страница с выпадающим списком, выбрана случайная страна, список закрыт</t>
+  </si>
+  <si>
+    <t>2. Провести валидацию формы</t>
+  </si>
+  <si>
+    <t>1.  Провести валидацию формы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сообщение об ошибке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Введите номер телефона</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыто веб-приложение, страница с выпадающим списком, </t>
+  </si>
+  <si>
+    <t>#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открыто веб-приложение, страница с выпадающим списком, выбрана страна </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Россия</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка смены маски номера </t>
+  </si>
+  <si>
+    <t>Дополнительно я бы ввёл сюда проверки в виду чек листа по нефункциональномиу тестированию — тест удобства, адаптивности, кросс-браузерности, кросс-платформенности, безопасности, производительности и нагрузки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Ввести номер телефона </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+7 123 456-78-90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В поле ввода номер зафиксирован </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+7 123 456-78-90</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Открыть список повторно и выбрать страну Дания</t>
+  </si>
+  <si>
+    <t>В поле ввода номер удаляется, подставляется код страны для Дании +45, список закрывается</t>
+  </si>
+  <si>
+    <r>
+      <t>Код страны</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> автоматически добавляется в поле ввода телефона, список закрывается</t>
     </r>
   </si>
 </sst>
@@ -518,7 +749,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -588,11 +819,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -643,6 +936,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -977,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F386A73-E198-4663-9F1F-90BAFED42D8F}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D92" activeCellId="1" sqref="B98:B99 D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,78 +1318,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="I6" s="25"/>
@@ -1075,10 +1379,10 @@
     </row>
     <row r="7" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="I7" s="25"/>
@@ -1087,421 +1391,632 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="26"/>
-      <c r="D9" s="1" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>28</v>
+      <c r="B29" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="B38" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="26"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="26"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="B47" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="B48" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="41"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="26"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B59" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="26"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="B68" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="B69" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="26"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B70" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="B73" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="26"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="B77" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="B78" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B79" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="26"/>
+      <c r="B80" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="41"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="41"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="26"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="30"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="28"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A92:B93"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>